--- a/tut06/output/2001EE22.xlsx
+++ b/tut06/output/2001EE22.xlsx
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -713,7 +713,9 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -734,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -755,7 +757,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -776,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +801,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
